--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3887.780547612553</v>
+        <v>4021.932243871563</v>
       </c>
       <c r="AB2" t="n">
-        <v>5319.432862016512</v>
+        <v>5502.985131193245</v>
       </c>
       <c r="AC2" t="n">
-        <v>4811.753655536368</v>
+        <v>4977.787953760093</v>
       </c>
       <c r="AD2" t="n">
-        <v>3887780.547612553</v>
+        <v>4021932.243871563</v>
       </c>
       <c r="AE2" t="n">
-        <v>5319432.862016511</v>
+        <v>5502985.131193245</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.578570727699228e-07</v>
+        <v>1.217207821098419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4811753.655536368</v>
+        <v>4977787.953760093</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1810.576925741012</v>
+        <v>1908.056389795865</v>
       </c>
       <c r="AB3" t="n">
-        <v>2477.311226815378</v>
+        <v>2610.68693002567</v>
       </c>
       <c r="AC3" t="n">
-        <v>2240.880120256262</v>
+        <v>2361.526633546139</v>
       </c>
       <c r="AD3" t="n">
-        <v>1810576.925741012</v>
+        <v>1908056.389795865</v>
       </c>
       <c r="AE3" t="n">
-        <v>2477311.226815378</v>
+        <v>2610686.93002567</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.04103127467849e-06</v>
+        <v>1.92618041516426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2240880.120256262</v>
+        <v>2361526.633546139</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1438.892324952985</v>
+        <v>1524.17618839416</v>
       </c>
       <c r="AB4" t="n">
-        <v>1968.755958449897</v>
+        <v>2085.445102868627</v>
       </c>
       <c r="AC4" t="n">
-        <v>1780.86065294178</v>
+        <v>1886.413149191429</v>
       </c>
       <c r="AD4" t="n">
-        <v>1438892.324952985</v>
+        <v>1524176.18839416</v>
       </c>
       <c r="AE4" t="n">
-        <v>1968755.958449896</v>
+        <v>2085445.102868627</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.190697026544823e-06</v>
+        <v>2.203101240770387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.76204427083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1780860.65294178</v>
+        <v>1886413.149191429</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1271.635887812661</v>
+        <v>1356.834410399265</v>
       </c>
       <c r="AB5" t="n">
-        <v>1739.90832232127</v>
+        <v>1856.480699617803</v>
       </c>
       <c r="AC5" t="n">
-        <v>1573.853914015595</v>
+        <v>1679.300787233306</v>
       </c>
       <c r="AD5" t="n">
-        <v>1271635.887812661</v>
+        <v>1356834.410399265</v>
       </c>
       <c r="AE5" t="n">
-        <v>1739908.32232127</v>
+        <v>1856480.699617803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.270244887174964e-06</v>
+        <v>2.35028560971388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.962890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1573853.914015595</v>
+        <v>1679300.787233306</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1170.357437674328</v>
+        <v>1243.531041356397</v>
       </c>
       <c r="AB6" t="n">
-        <v>1601.334678752125</v>
+        <v>1701.454031501492</v>
       </c>
       <c r="AC6" t="n">
-        <v>1448.505544499359</v>
+        <v>1539.069646740721</v>
       </c>
       <c r="AD6" t="n">
-        <v>1170357.437674328</v>
+        <v>1243531.041356397</v>
       </c>
       <c r="AE6" t="n">
-        <v>1601334.678752125</v>
+        <v>1701454.031501492</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321409473589656e-06</v>
+        <v>2.444953490208052e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.50065104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1448505.544499359</v>
+        <v>1539069.646740721</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1093.230369164424</v>
+        <v>1154.208461741366</v>
       </c>
       <c r="AB7" t="n">
-        <v>1495.806021010756</v>
+        <v>1579.23893743811</v>
       </c>
       <c r="AC7" t="n">
-        <v>1353.048393742424</v>
+        <v>1428.518589724785</v>
       </c>
       <c r="AD7" t="n">
-        <v>1093230.369164424</v>
+        <v>1154208.461741366</v>
       </c>
       <c r="AE7" t="n">
-        <v>1495806.021010756</v>
+        <v>1579238.93743811</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.356981932392571e-06</v>
+        <v>2.510771852376444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.19954427083333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1353048.393742424</v>
+        <v>1428518.589724785</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1041.935492715293</v>
+        <v>1102.913585292235</v>
       </c>
       <c r="AB8" t="n">
-        <v>1425.622108082818</v>
+        <v>1509.055024510172</v>
       </c>
       <c r="AC8" t="n">
-        <v>1289.562734960589</v>
+        <v>1365.03293094295</v>
       </c>
       <c r="AD8" t="n">
-        <v>1041935.492715293</v>
+        <v>1102913.585292235</v>
       </c>
       <c r="AE8" t="n">
-        <v>1425622.108082818</v>
+        <v>1509055.024510172</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377895923919744e-06</v>
+        <v>2.549468212286471e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.02864583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1289562.734960589</v>
+        <v>1365032.93094295</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1038.679324840811</v>
+        <v>1099.657417417753</v>
       </c>
       <c r="AB9" t="n">
-        <v>1421.166875544964</v>
+        <v>1504.599791972318</v>
       </c>
       <c r="AC9" t="n">
-        <v>1285.53270356319</v>
+        <v>1361.002899545551</v>
       </c>
       <c r="AD9" t="n">
-        <v>1038679.324840811</v>
+        <v>1099657.417417753</v>
       </c>
       <c r="AE9" t="n">
-        <v>1421166.875544964</v>
+        <v>1504599.791972318</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.380136708726227e-06</v>
+        <v>2.553614250848259e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.0107421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1285532.70356319</v>
+        <v>1361002.899545551</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2664.462416316264</v>
+        <v>2781.928945442845</v>
       </c>
       <c r="AB2" t="n">
-        <v>3645.635025789823</v>
+        <v>3806.357913198339</v>
       </c>
       <c r="AC2" t="n">
-        <v>3297.7007356092</v>
+        <v>3443.08445621943</v>
       </c>
       <c r="AD2" t="n">
-        <v>2664462.416316264</v>
+        <v>2781928.945442845</v>
       </c>
       <c r="AE2" t="n">
-        <v>3645635.025789823</v>
+        <v>3806357.913198339</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.096792266137777e-07</v>
+        <v>1.543373565663021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.41731770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3297700.7356092</v>
+        <v>3443084.45621943</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1431.825495252046</v>
+        <v>1514.000887980475</v>
       </c>
       <c r="AB3" t="n">
-        <v>1959.086810286549</v>
+        <v>2071.522807940049</v>
       </c>
       <c r="AC3" t="n">
-        <v>1772.114314708407</v>
+        <v>1873.819578550772</v>
       </c>
       <c r="AD3" t="n">
-        <v>1431825.495252046</v>
+        <v>1514000.887980475</v>
       </c>
       <c r="AE3" t="n">
-        <v>1959086.810286549</v>
+        <v>2071522.80794005</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167240063655911e-06</v>
+        <v>2.224939704286963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46842447916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1772114.314708408</v>
+        <v>1873819.578550772</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1174.176260282926</v>
+        <v>1244.673281733209</v>
       </c>
       <c r="AB4" t="n">
-        <v>1606.559760319773</v>
+        <v>1703.016895177136</v>
       </c>
       <c r="AC4" t="n">
-        <v>1453.231951615638</v>
+        <v>1540.483352900654</v>
       </c>
       <c r="AD4" t="n">
-        <v>1174176.260282926</v>
+        <v>1244673.281733209</v>
       </c>
       <c r="AE4" t="n">
-        <v>1606559.760319773</v>
+        <v>1703016.895177136</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.301590988649322e-06</v>
+        <v>2.481033302024917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.07845052083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1453231.951615638</v>
+        <v>1540483.352900654</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1032.39259833508</v>
+        <v>1102.804278930791</v>
       </c>
       <c r="AB5" t="n">
-        <v>1412.565098989024</v>
+        <v>1508.905466724189</v>
       </c>
       <c r="AC5" t="n">
-        <v>1277.751868489079</v>
+        <v>1364.897646742155</v>
       </c>
       <c r="AD5" t="n">
-        <v>1032392.59833508</v>
+        <v>1102804.278930791</v>
       </c>
       <c r="AE5" t="n">
-        <v>1412565.098989024</v>
+        <v>1508905.466724189</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.374513309547975e-06</v>
+        <v>2.620034499934446e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.43717447916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1277751.868489079</v>
+        <v>1364897.646742155</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>952.944054308423</v>
+        <v>1011.76270448056</v>
       </c>
       <c r="AB6" t="n">
-        <v>1303.860096029361</v>
+        <v>1384.338368090587</v>
       </c>
       <c r="AC6" t="n">
-        <v>1179.421518443456</v>
+        <v>1252.219057171123</v>
       </c>
       <c r="AD6" t="n">
-        <v>952944.054308423</v>
+        <v>1011762.70448056</v>
       </c>
       <c r="AE6" t="n">
-        <v>1303860.096029361</v>
+        <v>1384338.368090587</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413920338589895e-06</v>
+        <v>2.695150379069661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.1181640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1179421.518443456</v>
+        <v>1252219.057171123</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>952.7754679726626</v>
+        <v>1011.5941181448</v>
       </c>
       <c r="AB7" t="n">
-        <v>1303.62942876727</v>
+        <v>1384.107700828495</v>
       </c>
       <c r="AC7" t="n">
-        <v>1179.212865741115</v>
+        <v>1252.010404468782</v>
       </c>
       <c r="AD7" t="n">
-        <v>952775.4679726625</v>
+        <v>1011594.1181448</v>
       </c>
       <c r="AE7" t="n">
-        <v>1303629.42876727</v>
+        <v>1384107.700828495</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416141813266278e-06</v>
+        <v>2.699384852648362e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.10188802083333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1179212.865741115</v>
+        <v>1252010.404468782</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>995.2703134213825</v>
+        <v>1068.343818659127</v>
       </c>
       <c r="AB2" t="n">
-        <v>1361.772751050477</v>
+        <v>1461.755144692287</v>
       </c>
       <c r="AC2" t="n">
-        <v>1231.807070950279</v>
+        <v>1322.247285269085</v>
       </c>
       <c r="AD2" t="n">
-        <v>995270.3134213826</v>
+        <v>1068343.818659127</v>
       </c>
       <c r="AE2" t="n">
-        <v>1361772.751050477</v>
+        <v>1461755.144692287</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305379815342681e-06</v>
+        <v>2.780117384951901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.43912760416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1231807.070950279</v>
+        <v>1322247.285269085</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>753.74741577283</v>
+        <v>816.5280707199754</v>
       </c>
       <c r="AB3" t="n">
-        <v>1031.310467249493</v>
+        <v>1117.209729035199</v>
       </c>
       <c r="AC3" t="n">
-        <v>932.8836437085318</v>
+        <v>1010.584800509781</v>
       </c>
       <c r="AD3" t="n">
-        <v>753747.41577283</v>
+        <v>816528.0707199754</v>
       </c>
       <c r="AE3" t="n">
-        <v>1031310.467249493</v>
+        <v>1117209.729035198</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.484718653910236e-06</v>
+        <v>3.16206217760051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.81477864583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>932883.6437085319</v>
+        <v>1010584.800509781</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1459.301674634164</v>
+        <v>1546.905450803175</v>
       </c>
       <c r="AB2" t="n">
-        <v>1996.680931080647</v>
+        <v>2116.544282440927</v>
       </c>
       <c r="AC2" t="n">
-        <v>1806.120505377596</v>
+        <v>1914.544266713322</v>
       </c>
       <c r="AD2" t="n">
-        <v>1459301.674634164</v>
+        <v>1546905.450803174</v>
       </c>
       <c r="AE2" t="n">
-        <v>1996680.931080647</v>
+        <v>2116544.282440927</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102405445367992e-06</v>
+        <v>2.23826419056413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.22298177083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1806120.505377596</v>
+        <v>1914544.266713322</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>912.4209671622095</v>
+        <v>989.0528577764686</v>
       </c>
       <c r="AB3" t="n">
-        <v>1248.414620443481</v>
+        <v>1353.265753942321</v>
       </c>
       <c r="AC3" t="n">
-        <v>1129.267681229279</v>
+        <v>1224.11196970648</v>
       </c>
       <c r="AD3" t="n">
-        <v>912420.9671622096</v>
+        <v>989052.8577764686</v>
       </c>
       <c r="AE3" t="n">
-        <v>1248414.620443481</v>
+        <v>1353265.753942322</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.405020482980699e-06</v>
+        <v>2.852677340517901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.943359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1129267.681229279</v>
+        <v>1224111.96970648</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>820.8855803584157</v>
+        <v>886.5457644350256</v>
       </c>
       <c r="AB4" t="n">
-        <v>1123.17186596227</v>
+        <v>1213.011026538769</v>
       </c>
       <c r="AC4" t="n">
-        <v>1015.977919456445</v>
+        <v>1097.242956637576</v>
       </c>
       <c r="AD4" t="n">
-        <v>820885.5803584157</v>
+        <v>886545.7644350256</v>
       </c>
       <c r="AE4" t="n">
-        <v>1123171.86596227</v>
+        <v>1213011.026538769</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.468945976445734e-06</v>
+        <v>2.982468193319038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.42415364583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1015977.919456445</v>
+        <v>1097242.956637576</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>726.6095066198351</v>
+        <v>786.8031850557754</v>
       </c>
       <c r="AB2" t="n">
-        <v>994.1791827063099</v>
+        <v>1076.538829100036</v>
       </c>
       <c r="AC2" t="n">
-        <v>899.2961168480653</v>
+        <v>973.7954741824642</v>
       </c>
       <c r="AD2" t="n">
-        <v>726609.506619835</v>
+        <v>786803.1850557755</v>
       </c>
       <c r="AE2" t="n">
-        <v>994179.1827063099</v>
+        <v>1076538.829100036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.462420048716416e-06</v>
+        <v>3.256523802697754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.45768229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>899296.1168480653</v>
+        <v>973795.4741824642</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>720.7786296495696</v>
+        <v>780.9723080855099</v>
       </c>
       <c r="AB3" t="n">
-        <v>986.2011195954557</v>
+        <v>1068.560765989182</v>
       </c>
       <c r="AC3" t="n">
-        <v>892.0794688832292</v>
+        <v>966.578826217628</v>
       </c>
       <c r="AD3" t="n">
-        <v>720778.6296495695</v>
+        <v>780972.3080855099</v>
       </c>
       <c r="AE3" t="n">
-        <v>986201.1195954557</v>
+        <v>1068560.765989182</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474844742586108e-06</v>
+        <v>3.284191169104142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.35188802083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>892079.4688832292</v>
+        <v>966578.8262176281</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2929.836245959914</v>
+        <v>3048.523297889813</v>
       </c>
       <c r="AB2" t="n">
-        <v>4008.731206975378</v>
+        <v>4171.124067529059</v>
       </c>
       <c r="AC2" t="n">
-        <v>3626.143526871082</v>
+        <v>3773.037840733324</v>
       </c>
       <c r="AD2" t="n">
-        <v>2929836.245959914</v>
+        <v>3048523.297889812</v>
       </c>
       <c r="AE2" t="n">
-        <v>4008731.206975378</v>
+        <v>4171124.067529059</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.691917098205596e-07</v>
+        <v>1.454359739134587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.25390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3626143.526871081</v>
+        <v>3773037.840733324</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1519.216223900947</v>
+        <v>1602.35683619409</v>
       </c>
       <c r="AB3" t="n">
-        <v>2078.658660630822</v>
+        <v>2192.415314275247</v>
       </c>
       <c r="AC3" t="n">
-        <v>1880.27439547597</v>
+        <v>1983.174273755036</v>
       </c>
       <c r="AD3" t="n">
-        <v>1519216.223900947</v>
+        <v>1602356.83619409</v>
       </c>
       <c r="AE3" t="n">
-        <v>2078658.660630822</v>
+        <v>2192415.314275247</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134165327235417e-06</v>
+        <v>2.144438594948448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.7353515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1880274.39547597</v>
+        <v>1983174.273755037</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1237.174099398301</v>
+        <v>1308.352230017832</v>
       </c>
       <c r="AB4" t="n">
-        <v>1692.756183065939</v>
+        <v>1790.145241537083</v>
       </c>
       <c r="AC4" t="n">
-        <v>1531.20190875235</v>
+        <v>1619.296292169409</v>
       </c>
       <c r="AD4" t="n">
-        <v>1237174.099398301</v>
+        <v>1308352.230017832</v>
       </c>
       <c r="AE4" t="n">
-        <v>1692756.183065939</v>
+        <v>1790145.241537083</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273148199642019e-06</v>
+        <v>2.407222360655693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.236328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1531201.90875235</v>
+        <v>1619296.292169409</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1093.384776608236</v>
+        <v>1164.648158573787</v>
       </c>
       <c r="AB5" t="n">
-        <v>1496.017288087354</v>
+        <v>1593.522991211147</v>
       </c>
       <c r="AC5" t="n">
-        <v>1353.239497785748</v>
+        <v>1441.43939345352</v>
       </c>
       <c r="AD5" t="n">
-        <v>1093384.776608236</v>
+        <v>1164648.158573787</v>
       </c>
       <c r="AE5" t="n">
-        <v>1496017.288087355</v>
+        <v>1593522.991211148</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.346659801576089e-06</v>
+        <v>2.546215426814897e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.56901041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1353239.497785748</v>
+        <v>1441439.39345352</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1002.3924209634</v>
+        <v>1061.77866210991</v>
       </c>
       <c r="AB6" t="n">
-        <v>1371.517532794674</v>
+        <v>1452.772407867383</v>
       </c>
       <c r="AC6" t="n">
-        <v>1240.621824401697</v>
+        <v>1314.121848239399</v>
       </c>
       <c r="AD6" t="n">
-        <v>1002392.4209634</v>
+        <v>1061778.66210991</v>
       </c>
       <c r="AE6" t="n">
-        <v>1371517.532794674</v>
+        <v>1452772.407867383</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392221679858143e-06</v>
+        <v>2.63236217094482e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.18977864583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1240621.824401697</v>
+        <v>1314121.848239399</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>972.2395010229931</v>
+        <v>1031.625742169503</v>
       </c>
       <c r="AB7" t="n">
-        <v>1330.260977479267</v>
+        <v>1411.515852551975</v>
       </c>
       <c r="AC7" t="n">
-        <v>1203.302736821653</v>
+        <v>1276.802760659355</v>
       </c>
       <c r="AD7" t="n">
-        <v>972239.5010229931</v>
+        <v>1031625.742169503</v>
       </c>
       <c r="AE7" t="n">
-        <v>1330260.977479267</v>
+        <v>1411515.852551975</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.407249442232687e-06</v>
+        <v>2.660776118063303e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.07096354166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1203302.736821653</v>
+        <v>1276802.760659355</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>976.8170956972569</v>
+        <v>1036.203336843767</v>
       </c>
       <c r="AB8" t="n">
-        <v>1336.524244461819</v>
+        <v>1417.779119534528</v>
       </c>
       <c r="AC8" t="n">
-        <v>1208.96824639394</v>
+        <v>1282.468270231644</v>
       </c>
       <c r="AD8" t="n">
-        <v>976817.095697257</v>
+        <v>1036203.336843767</v>
       </c>
       <c r="AE8" t="n">
-        <v>1336524.244461819</v>
+        <v>1417779.119534528</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.407058005769316e-06</v>
+        <v>2.660414156953514e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.07259114583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1208968.24639394</v>
+        <v>1282468.270231644</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>692.7594413905946</v>
+        <v>761.2712234296145</v>
       </c>
       <c r="AB2" t="n">
-        <v>947.8640301001814</v>
+        <v>1041.604872812473</v>
       </c>
       <c r="AC2" t="n">
-        <v>857.4012174029408</v>
+        <v>942.1955656528701</v>
       </c>
       <c r="AD2" t="n">
-        <v>692759.4413905946</v>
+        <v>761271.2234296144</v>
       </c>
       <c r="AE2" t="n">
-        <v>947864.0301001813</v>
+        <v>1041604.872812473</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.451824474232737e-06</v>
+        <v>3.328404513826163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.841796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>857401.2174029408</v>
+        <v>942195.5656528701</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000.04300801949</v>
+        <v>2102.430031818811</v>
       </c>
       <c r="AB2" t="n">
-        <v>2736.547079242419</v>
+        <v>2876.637522201346</v>
       </c>
       <c r="AC2" t="n">
-        <v>2475.37486676747</v>
+        <v>2602.095274468568</v>
       </c>
       <c r="AD2" t="n">
-        <v>2000043.00801949</v>
+        <v>2102430.031818811</v>
       </c>
       <c r="AE2" t="n">
-        <v>2736547.079242419</v>
+        <v>2876637.522201346</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.428890901383864e-07</v>
+        <v>1.848049586006071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.177734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2475374.86676747</v>
+        <v>2602095.274468568</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1171.173214618438</v>
+        <v>1250.854908430465</v>
       </c>
       <c r="AB3" t="n">
-        <v>1602.450860756596</v>
+        <v>1711.474869538444</v>
       </c>
       <c r="AC3" t="n">
-        <v>1449.515199659894</v>
+        <v>1548.13411005976</v>
       </c>
       <c r="AD3" t="n">
-        <v>1171173.214618438</v>
+        <v>1250854.908430465</v>
       </c>
       <c r="AE3" t="n">
-        <v>1602450.860756596</v>
+        <v>1711474.869538444</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274865660555448e-06</v>
+        <v>2.498719076129159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.705078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1449515.199659894</v>
+        <v>1548134.11005976</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>960.8807952051515</v>
+        <v>1029.252539205093</v>
       </c>
       <c r="AB4" t="n">
-        <v>1314.719495068562</v>
+        <v>1408.268731557744</v>
       </c>
       <c r="AC4" t="n">
-        <v>1189.244511679618</v>
+        <v>1273.865540335451</v>
       </c>
       <c r="AD4" t="n">
-        <v>960880.7952051514</v>
+        <v>1029252.539205093</v>
       </c>
       <c r="AE4" t="n">
-        <v>1314719.495068562</v>
+        <v>1408268.731557744</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.399555901182719e-06</v>
+        <v>2.743110224547693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.572265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1189244.511679618</v>
+        <v>1273865.540335451</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>886.9328818841733</v>
+        <v>943.9094247260091</v>
       </c>
       <c r="AB5" t="n">
-        <v>1213.540697711109</v>
+        <v>1291.498517254976</v>
       </c>
       <c r="AC5" t="n">
-        <v>1097.722076736626</v>
+        <v>1168.239711397714</v>
       </c>
       <c r="AD5" t="n">
-        <v>886932.8818841733</v>
+        <v>943909.4247260091</v>
       </c>
       <c r="AE5" t="n">
-        <v>1213540.697711109</v>
+        <v>1291498.517254976</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444038373297955e-06</v>
+        <v>2.830295255148718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.2158203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1097722.076736626</v>
+        <v>1168239.711397714</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>889.6424229665434</v>
+        <v>946.6189658083794</v>
       </c>
       <c r="AB6" t="n">
-        <v>1217.248011356524</v>
+        <v>1295.205830900391</v>
       </c>
       <c r="AC6" t="n">
-        <v>1101.07556957097</v>
+        <v>1171.593204232058</v>
       </c>
       <c r="AD6" t="n">
-        <v>889642.4229665435</v>
+        <v>946618.9658083793</v>
       </c>
       <c r="AE6" t="n">
-        <v>1217248.011356524</v>
+        <v>1295205.830900391</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.444038373297955e-06</v>
+        <v>2.830295255148718e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.2158203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1101075.56957097</v>
+        <v>1171593.204232058</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2421.40867206099</v>
+        <v>2537.782103866464</v>
       </c>
       <c r="AB2" t="n">
-        <v>3313.078170125316</v>
+        <v>3472.305433555044</v>
       </c>
       <c r="AC2" t="n">
-        <v>2996.882639502847</v>
+        <v>3140.913476387703</v>
       </c>
       <c r="AD2" t="n">
-        <v>2421408.67206099</v>
+        <v>2537782.103866464</v>
       </c>
       <c r="AE2" t="n">
-        <v>3313078.170125316</v>
+        <v>3472305.433555044</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.51886045991204e-07</v>
+        <v>1.63792392549082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.62955729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2996882.639502847</v>
+        <v>3140913.476387703</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1348.007958011281</v>
+        <v>1429.358506672721</v>
       </c>
       <c r="AB3" t="n">
-        <v>1844.403958064967</v>
+        <v>1955.711367676462</v>
       </c>
       <c r="AC3" t="n">
-        <v>1668.376632944459</v>
+        <v>1769.061019603563</v>
       </c>
       <c r="AD3" t="n">
-        <v>1348007.958011281</v>
+        <v>1429358.506672721</v>
       </c>
       <c r="AE3" t="n">
-        <v>1844403.958064967</v>
+        <v>1955711.367676462</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.201337755826671e-06</v>
+        <v>2.309815804735309e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.20963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1668376.632944459</v>
+        <v>1769061.019603563</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1096.843295548565</v>
+        <v>1178.193754701454</v>
       </c>
       <c r="AB4" t="n">
-        <v>1500.749386280601</v>
+        <v>1612.056673422547</v>
       </c>
       <c r="AC4" t="n">
-        <v>1357.519971168972</v>
+        <v>1458.20424704685</v>
       </c>
       <c r="AD4" t="n">
-        <v>1096843.295548565</v>
+        <v>1178193.754701454</v>
       </c>
       <c r="AE4" t="n">
-        <v>1500749.386280601</v>
+        <v>1612056.673422547</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.332089637213212e-06</v>
+        <v>2.561212849954857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1357519.971168972</v>
+        <v>1458204.24704685</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>971.3049725244992</v>
+        <v>1041.009643919934</v>
       </c>
       <c r="AB5" t="n">
-        <v>1328.98231435914</v>
+        <v>1424.355320915443</v>
       </c>
       <c r="AC5" t="n">
-        <v>1202.146107515096</v>
+        <v>1288.416848182521</v>
       </c>
       <c r="AD5" t="n">
-        <v>971304.9725244993</v>
+        <v>1041009.643919935</v>
       </c>
       <c r="AE5" t="n">
-        <v>1328982.31435914</v>
+        <v>1424355.320915443</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.4033645255753e-06</v>
+        <v>2.69825329742353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.30859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1202146.107515096</v>
+        <v>1288416.848182521</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>929.9170755151988</v>
+        <v>988.1465513537727</v>
       </c>
       <c r="AB6" t="n">
-        <v>1272.353567765865</v>
+        <v>1352.025705511372</v>
       </c>
       <c r="AC6" t="n">
-        <v>1150.921929017738</v>
+        <v>1222.990269757361</v>
       </c>
       <c r="AD6" t="n">
-        <v>929917.0755151988</v>
+        <v>988146.5513537726</v>
       </c>
       <c r="AE6" t="n">
-        <v>1272353.567765865</v>
+        <v>1352025.705511372</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425010250905511e-06</v>
+        <v>2.739871600211553e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.13606770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1150921.929017738</v>
+        <v>1222990.269757361</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>933.8009774276162</v>
+        <v>992.0304532661901</v>
       </c>
       <c r="AB7" t="n">
-        <v>1277.667693708094</v>
+        <v>1357.3398314536</v>
       </c>
       <c r="AC7" t="n">
-        <v>1155.728882238463</v>
+        <v>1227.797222978086</v>
       </c>
       <c r="AD7" t="n">
-        <v>933800.9774276162</v>
+        <v>992030.4532661901</v>
       </c>
       <c r="AE7" t="n">
-        <v>1277667.693708094</v>
+        <v>1357339.8314536</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425010250905511e-06</v>
+        <v>2.739871600211553e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.13606770833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1155728.882238463</v>
+        <v>1227797.222978086</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3536.711364031172</v>
+        <v>3669.647522518217</v>
       </c>
       <c r="AB2" t="n">
-        <v>4839.084516961156</v>
+        <v>5020.97363373254</v>
       </c>
       <c r="AC2" t="n">
-        <v>4377.249082359976</v>
+        <v>4541.778957109671</v>
       </c>
       <c r="AD2" t="n">
-        <v>3536711.364031172</v>
+        <v>3669647.522518217</v>
       </c>
       <c r="AE2" t="n">
-        <v>4839084.516961155</v>
+        <v>5020973.633732541</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.935143126306435e-07</v>
+        <v>1.291964563850119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.08658854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4377249.082359975</v>
+        <v>4541778.957109671</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1711.530011342463</v>
+        <v>1796.094748072029</v>
       </c>
       <c r="AB3" t="n">
-        <v>2341.790868893816</v>
+        <v>2457.49607242009</v>
       </c>
       <c r="AC3" t="n">
-        <v>2118.293635090716</v>
+        <v>2222.956096385717</v>
       </c>
       <c r="AD3" t="n">
-        <v>1711530.011342463</v>
+        <v>1796094.74807203</v>
       </c>
       <c r="AE3" t="n">
-        <v>2341790.868893816</v>
+        <v>2457496.07242009</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072034405641968e-06</v>
+        <v>1.99711878773466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.28873697916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2118293.635090716</v>
+        <v>2222956.096385717</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1372.200615108932</v>
+        <v>1456.765262329947</v>
       </c>
       <c r="AB4" t="n">
-        <v>1877.505418810677</v>
+        <v>1993.210499867404</v>
       </c>
       <c r="AC4" t="n">
-        <v>1698.31893673479</v>
+        <v>1802.981287248564</v>
       </c>
       <c r="AD4" t="n">
-        <v>1372200.615108932</v>
+        <v>1456765.262329947</v>
       </c>
       <c r="AE4" t="n">
-        <v>1877505.418810677</v>
+        <v>1993210.499867404</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216873396975739e-06</v>
+        <v>2.266942843069893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.587890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1698318.93673479</v>
+        <v>1802981.287248564</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1211.996783686976</v>
+        <v>1284.553916323193</v>
       </c>
       <c r="AB5" t="n">
-        <v>1658.307468964927</v>
+        <v>1757.583338832577</v>
       </c>
       <c r="AC5" t="n">
-        <v>1500.040931576064</v>
+        <v>1589.842051758104</v>
       </c>
       <c r="AD5" t="n">
-        <v>1211996.783686976</v>
+        <v>1284553.916323193</v>
       </c>
       <c r="AE5" t="n">
-        <v>1658307.468964927</v>
+        <v>1757583.338832577</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295457255171775e-06</v>
+        <v>2.413338610584461e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.82454427083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1500040.931576064</v>
+        <v>1589842.051758104</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1112.668255680943</v>
+        <v>1185.054796116568</v>
       </c>
       <c r="AB6" t="n">
-        <v>1522.401794881689</v>
+        <v>1621.444252974491</v>
       </c>
       <c r="AC6" t="n">
-        <v>1377.105904282519</v>
+        <v>1466.695889181907</v>
       </c>
       <c r="AD6" t="n">
-        <v>1112668.255680943</v>
+        <v>1185054.796116568</v>
       </c>
       <c r="AE6" t="n">
-        <v>1522401.794881689</v>
+        <v>1621444.252974491</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.345901504265278e-06</v>
+        <v>2.50731242062974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1377105.904282519</v>
+        <v>1466695.889181907</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1038.556569034381</v>
+        <v>1099.02093573978</v>
       </c>
       <c r="AB7" t="n">
-        <v>1420.998915635003</v>
+        <v>1503.728929660925</v>
       </c>
       <c r="AC7" t="n">
-        <v>1285.380773511301</v>
+        <v>1360.215151110894</v>
       </c>
       <c r="AD7" t="n">
-        <v>1038556.569034381</v>
+        <v>1099020.93573978</v>
       </c>
       <c r="AE7" t="n">
-        <v>1420998.915635003</v>
+        <v>1503728.929660925</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.379311408049221e-06</v>
+        <v>2.569552537357491e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.10514322916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1285380.773511301</v>
+        <v>1360215.151110894</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1013.236369274203</v>
+        <v>1073.700735979602</v>
       </c>
       <c r="AB8" t="n">
-        <v>1386.354701274752</v>
+        <v>1469.084715300675</v>
       </c>
       <c r="AC8" t="n">
-        <v>1254.042954346132</v>
+        <v>1328.877331945725</v>
       </c>
       <c r="AD8" t="n">
-        <v>1013236.369274203</v>
+        <v>1073700.735979602</v>
       </c>
       <c r="AE8" t="n">
-        <v>1386354.701274751</v>
+        <v>1469084.715300675</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.389004985766816e-06</v>
+        <v>2.587610937422161e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.02864583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1254042.954346132</v>
+        <v>1328877.331945725</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1017.590919704354</v>
+        <v>1078.055286409752</v>
       </c>
       <c r="AB9" t="n">
-        <v>1392.312789282489</v>
+        <v>1475.042803308412</v>
       </c>
       <c r="AC9" t="n">
-        <v>1259.432410796641</v>
+        <v>1334.266788396234</v>
       </c>
       <c r="AD9" t="n">
-        <v>1017590.919704354</v>
+        <v>1078055.286409752</v>
       </c>
       <c r="AE9" t="n">
-        <v>1392312.789282489</v>
+        <v>1475042.803308412</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388910873361791e-06</v>
+        <v>2.587435613149689e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.02864583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1259432.410796641</v>
+        <v>1334266.788396233</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1617.938169322992</v>
+        <v>1706.902037235865</v>
       </c>
       <c r="AB2" t="n">
-        <v>2213.734381662115</v>
+        <v>2335.45867054936</v>
       </c>
       <c r="AC2" t="n">
-        <v>2002.458679272</v>
+        <v>2112.565772868959</v>
       </c>
       <c r="AD2" t="n">
-        <v>1617938.169322992</v>
+        <v>1706902.037235865</v>
       </c>
       <c r="AE2" t="n">
-        <v>2213734.381662115</v>
+        <v>2335458.67054936</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.046864155130927e-06</v>
+        <v>2.098436429966943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.830078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2002458.679272</v>
+        <v>2112565.772868959</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.868968711145</v>
+        <v>1072.506618299778</v>
       </c>
       <c r="AB3" t="n">
-        <v>1376.274298797601</v>
+        <v>1467.450870810385</v>
       </c>
       <c r="AC3" t="n">
-        <v>1244.924611333467</v>
+        <v>1327.399419280474</v>
       </c>
       <c r="AD3" t="n">
-        <v>1005868.968711145</v>
+        <v>1072506.618299779</v>
       </c>
       <c r="AE3" t="n">
-        <v>1376274.298797601</v>
+        <v>1467450.870810385</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359233268916347e-06</v>
+        <v>2.724579492322378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.19075520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1244924.611333467</v>
+        <v>1327399.419280474</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>848.7684501272643</v>
+        <v>915.3207588613263</v>
       </c>
       <c r="AB4" t="n">
-        <v>1161.322438485406</v>
+        <v>1252.382243375993</v>
       </c>
       <c r="AC4" t="n">
-        <v>1050.487454882638</v>
+        <v>1132.856639797706</v>
       </c>
       <c r="AD4" t="n">
-        <v>848768.4501272643</v>
+        <v>915320.7588613264</v>
       </c>
       <c r="AE4" t="n">
-        <v>1161322.438485406</v>
+        <v>1252382.243375993</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457688592589913e-06</v>
+        <v>2.921932928208201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.36881510416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1050487.454882638</v>
+        <v>1132856.639797706</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>846.0761236150971</v>
+        <v>912.6284323491592</v>
       </c>
       <c r="AB5" t="n">
-        <v>1157.638678574396</v>
+        <v>1248.698483464983</v>
       </c>
       <c r="AC5" t="n">
-        <v>1047.155267847345</v>
+        <v>1129.524452762413</v>
       </c>
       <c r="AD5" t="n">
-        <v>846076.1236150971</v>
+        <v>912628.4323491591</v>
       </c>
       <c r="AE5" t="n">
-        <v>1157638.678574396</v>
+        <v>1248698.483464983</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461659386409219e-06</v>
+        <v>2.929892373916109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.337890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1047155.267847345</v>
+        <v>1129524.452762413</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1151.396360569626</v>
+        <v>1225.82785227171</v>
       </c>
       <c r="AB2" t="n">
-        <v>1575.391296553788</v>
+        <v>1677.231747186242</v>
       </c>
       <c r="AC2" t="n">
-        <v>1425.038162286265</v>
+        <v>1517.159103244328</v>
       </c>
       <c r="AD2" t="n">
-        <v>1151396.360569626</v>
+        <v>1225827.85227171</v>
       </c>
       <c r="AE2" t="n">
-        <v>1575391.296553788</v>
+        <v>1677231.747186242</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.229102861209837e-06</v>
+        <v>2.571360051183619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.04459635416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1425038.162286265</v>
+        <v>1517159.103244328</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>776.8166099444263</v>
+        <v>840.6881039856586</v>
       </c>
       <c r="AB3" t="n">
-        <v>1062.874756456089</v>
+        <v>1150.266552414749</v>
       </c>
       <c r="AC3" t="n">
-        <v>961.4354814540088</v>
+        <v>1040.48672706153</v>
       </c>
       <c r="AD3" t="n">
-        <v>776816.6099444263</v>
+        <v>840688.1039856586</v>
       </c>
       <c r="AE3" t="n">
-        <v>1062874.756456089</v>
+        <v>1150266.552414749</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.480035415323434e-06</v>
+        <v>3.09632664718849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.66341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>961435.4814540088</v>
+        <v>1040486.72706153</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>780.5322113447268</v>
+        <v>844.403705385959</v>
       </c>
       <c r="AB4" t="n">
-        <v>1067.958606212745</v>
+        <v>1155.350402171405</v>
       </c>
       <c r="AC4" t="n">
-        <v>966.0341357251174</v>
+        <v>1045.085381332639</v>
       </c>
       <c r="AD4" t="n">
-        <v>780532.2113447267</v>
+        <v>844403.705385959</v>
       </c>
       <c r="AE4" t="n">
-        <v>1067958.606212745</v>
+        <v>1155350.402171405</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.481732338766298e-06</v>
+        <v>3.09987671715302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.64876302083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>966034.1357251174</v>
+        <v>1045085.381332639</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>843.9375366700393</v>
+        <v>915.7098922357256</v>
       </c>
       <c r="AB2" t="n">
-        <v>1154.712569568371</v>
+        <v>1252.914672826199</v>
       </c>
       <c r="AC2" t="n">
-        <v>1044.508422578035</v>
+        <v>1133.338254928454</v>
       </c>
       <c r="AD2" t="n">
-        <v>843937.5366700393</v>
+        <v>915709.8922357257</v>
       </c>
       <c r="AE2" t="n">
-        <v>1154712.569568371</v>
+        <v>1252914.672826199</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.38950024280913e-06</v>
+        <v>3.020573120048085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1044508.422578035</v>
+        <v>1133338.254928454</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.7419032264233</v>
+        <v>804.2489630977667</v>
       </c>
       <c r="AB3" t="n">
-        <v>1016.252239454552</v>
+        <v>1100.408912270496</v>
       </c>
       <c r="AC3" t="n">
-        <v>919.2625520399851</v>
+        <v>995.3874301170079</v>
       </c>
       <c r="AD3" t="n">
-        <v>742741.9032264233</v>
+        <v>804248.9630977667</v>
       </c>
       <c r="AE3" t="n">
-        <v>1016252.239454552</v>
+        <v>1100408.912270496</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482645580838736e-06</v>
+        <v>3.223057650559007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>919262.5520399851</v>
+        <v>995387.4301170078</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.543697582239</v>
+        <v>748.1303389695231</v>
       </c>
       <c r="AB2" t="n">
-        <v>932.518154617894</v>
+        <v>1023.624934959269</v>
       </c>
       <c r="AC2" t="n">
-        <v>843.5199307386116</v>
+        <v>925.9316078333748</v>
       </c>
       <c r="AD2" t="n">
-        <v>681543.6975822391</v>
+        <v>748130.3389695231</v>
       </c>
       <c r="AE2" t="n">
-        <v>932518.154617894</v>
+        <v>1023624.934959269</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.399862574404617e-06</v>
+        <v>3.329610878448197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>843519.9307386116</v>
+        <v>925931.6078333748</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2201.059879228825</v>
+        <v>2316.121760531217</v>
       </c>
       <c r="AB2" t="n">
-        <v>3011.587230669671</v>
+        <v>3169.019972839559</v>
       </c>
       <c r="AC2" t="n">
-        <v>2724.165572163669</v>
+        <v>2866.573154379098</v>
       </c>
       <c r="AD2" t="n">
-        <v>2201059.879228825</v>
+        <v>2316121.760531217</v>
       </c>
       <c r="AE2" t="n">
-        <v>3011587.230669672</v>
+        <v>3169019.972839559</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.952510462696827e-07</v>
+        <v>1.73730465943147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.90364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2724165.572163669</v>
+        <v>2866573.154379098</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1251.911855578966</v>
+        <v>1332.489308832469</v>
       </c>
       <c r="AB3" t="n">
-        <v>1712.92103125624</v>
+        <v>1823.170657624034</v>
       </c>
       <c r="AC3" t="n">
-        <v>1549.44225213291</v>
+        <v>1649.169808896484</v>
       </c>
       <c r="AD3" t="n">
-        <v>1251911.855578966</v>
+        <v>1332489.308832469</v>
       </c>
       <c r="AE3" t="n">
-        <v>1712921.03125624</v>
+        <v>1823170.657624034</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.237752766534335e-06</v>
+        <v>2.401956029523061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1549442.252132911</v>
+        <v>1649169.808896484</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1030.815711394305</v>
+        <v>1099.955249201227</v>
       </c>
       <c r="AB4" t="n">
-        <v>1410.407532709314</v>
+        <v>1505.007298557878</v>
       </c>
       <c r="AC4" t="n">
-        <v>1275.800217306941</v>
+        <v>1361.371514274524</v>
       </c>
       <c r="AD4" t="n">
-        <v>1030815.711394306</v>
+        <v>1099955.249201227</v>
       </c>
       <c r="AE4" t="n">
-        <v>1410407.532709314</v>
+        <v>1505007.298557878</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.364393713130179e-06</v>
+        <v>2.647712689079641e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.748046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1275800.217306941</v>
+        <v>1361371.514274524</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>918.9943648132665</v>
+        <v>987.9633104195958</v>
       </c>
       <c r="AB5" t="n">
-        <v>1257.408633107494</v>
+        <v>1351.774987181211</v>
       </c>
       <c r="AC5" t="n">
-        <v>1137.403317947814</v>
+        <v>1222.763479632746</v>
       </c>
       <c r="AD5" t="n">
-        <v>918994.3648132666</v>
+        <v>987963.3104195958</v>
       </c>
       <c r="AE5" t="n">
-        <v>1257408.633107494</v>
+        <v>1351774.987181211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.428206569579717e-06</v>
+        <v>2.771546526865539e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.22233072916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1137403.317947814</v>
+        <v>1222763.479632746</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>907.7077486443779</v>
+        <v>965.324119658697</v>
       </c>
       <c r="AB6" t="n">
-        <v>1241.965786934858</v>
+        <v>1320.799047611543</v>
       </c>
       <c r="AC6" t="n">
-        <v>1123.434315339724</v>
+        <v>1194.743840260602</v>
       </c>
       <c r="AD6" t="n">
-        <v>907707.7486443779</v>
+        <v>965324.1196586969</v>
       </c>
       <c r="AE6" t="n">
-        <v>1241965.786934858</v>
+        <v>1320799.047611543</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.435789270114616e-06</v>
+        <v>2.78626135018269e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.16373697916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1123434.315339724</v>
+        <v>1194743.840260602</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3222.968101660504</v>
+        <v>3354.652647205281</v>
       </c>
       <c r="AB2" t="n">
-        <v>4409.807144009721</v>
+        <v>4589.983748736232</v>
       </c>
       <c r="AC2" t="n">
-        <v>3988.941339388466</v>
+        <v>4151.922141839324</v>
       </c>
       <c r="AD2" t="n">
-        <v>3222968.101660504</v>
+        <v>3354652.647205281</v>
       </c>
       <c r="AE2" t="n">
-        <v>4409807.144009721</v>
+        <v>4589983.748736232</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.301237816822869e-07</v>
+        <v>1.369998590335096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.15397135416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3988941.339388466</v>
+        <v>4151922.141839324</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1619.358739527652</v>
+        <v>1703.181303110503</v>
       </c>
       <c r="AB3" t="n">
-        <v>2215.678068487263</v>
+        <v>2330.367797971834</v>
       </c>
       <c r="AC3" t="n">
-        <v>2004.216863354539</v>
+        <v>2107.960766025148</v>
       </c>
       <c r="AD3" t="n">
-        <v>1619358.739527652</v>
+        <v>1703181.303110502</v>
       </c>
       <c r="AE3" t="n">
-        <v>2215678.068487263</v>
+        <v>2330367.797971834</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.102682394482476e-06</v>
+        <v>2.069064676331403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.00716145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2004216.863354539</v>
+        <v>2107960.766025148</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1305.197030884419</v>
+        <v>1377.032763763145</v>
       </c>
       <c r="AB4" t="n">
-        <v>1785.828158885185</v>
+        <v>1884.116977778725</v>
       </c>
       <c r="AC4" t="n">
-        <v>1615.391225826745</v>
+        <v>1704.299497794309</v>
       </c>
       <c r="AD4" t="n">
-        <v>1305197.030884419</v>
+        <v>1377032.763763145</v>
       </c>
       <c r="AE4" t="n">
-        <v>1785828.158885185</v>
+        <v>1884116.977778724</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244171159557638e-06</v>
+        <v>2.334553095643806e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.41373697916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1615391.225826745</v>
+        <v>1704299.497794309</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1152.313395600115</v>
+        <v>1224.234379824861</v>
       </c>
       <c r="AB5" t="n">
-        <v>1576.646024339232</v>
+        <v>1675.051487885421</v>
       </c>
       <c r="AC5" t="n">
-        <v>1426.173140612888</v>
+        <v>1515.186924831164</v>
       </c>
       <c r="AD5" t="n">
-        <v>1152313.395600114</v>
+        <v>1224234.379824861</v>
       </c>
       <c r="AE5" t="n">
-        <v>1576646.024339232</v>
+        <v>1675051.48788542</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320656702582842e-06</v>
+        <v>2.478069974225829e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.69596354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1426173.140612888</v>
+        <v>1515186.924831164</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1056.333836025097</v>
+        <v>1128.084228049251</v>
       </c>
       <c r="AB6" t="n">
-        <v>1445.322556609368</v>
+        <v>1543.494608380709</v>
       </c>
       <c r="AC6" t="n">
-        <v>1307.383000329517</v>
+        <v>1396.185649265143</v>
       </c>
       <c r="AD6" t="n">
-        <v>1056333.836025097</v>
+        <v>1128084.228049251</v>
       </c>
       <c r="AE6" t="n">
-        <v>1445322.556609368</v>
+        <v>1543494.60838071</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369717528567992e-06</v>
+        <v>2.570127326864671e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1307383.000329518</v>
+        <v>1396185.649265142</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>995.4193545748375</v>
+        <v>1055.353597604011</v>
       </c>
       <c r="AB7" t="n">
-        <v>1361.976675731866</v>
+        <v>1443.981351156571</v>
       </c>
       <c r="AC7" t="n">
-        <v>1231.991533346286</v>
+        <v>1306.169797642742</v>
       </c>
       <c r="AD7" t="n">
-        <v>995419.3545748375</v>
+        <v>1055353.597604011</v>
       </c>
       <c r="AE7" t="n">
-        <v>1361976.675731866</v>
+        <v>1443981.351156571</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.396477979105346e-06</v>
+        <v>2.620340428304039e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.0595703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1231991.533346286</v>
+        <v>1306169.797642742</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>995.9294011846197</v>
+        <v>1055.863644213793</v>
       </c>
       <c r="AB8" t="n">
-        <v>1362.674544005038</v>
+        <v>1444.679219429743</v>
       </c>
       <c r="AC8" t="n">
-        <v>1232.622798050931</v>
+        <v>1306.801062347387</v>
       </c>
       <c r="AD8" t="n">
-        <v>995929.4011846196</v>
+        <v>1055863.644213793</v>
       </c>
       <c r="AE8" t="n">
-        <v>1362674.544005038</v>
+        <v>1444679.219429743</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.397711616896075e-06</v>
+        <v>2.622655216668265e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.0498046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1232622.798050931</v>
+        <v>1306801.062347387</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.4109379297943</v>
+        <v>756.6924816356614</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.072995238249</v>
+        <v>1035.340036290154</v>
       </c>
       <c r="AC2" t="n">
-        <v>845.8309409559013</v>
+        <v>936.5286363354885</v>
       </c>
       <c r="AD2" t="n">
-        <v>683410.9379297943</v>
+        <v>756692.4816356613</v>
       </c>
       <c r="AE2" t="n">
-        <v>935072.995238249</v>
+        <v>1035340.036290154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.27933983481902e-06</v>
+        <v>3.199531838381463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5126953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>845830.9409559013</v>
+        <v>936528.6363354885</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1296.352108428623</v>
+        <v>1382.778343368795</v>
       </c>
       <c r="AB2" t="n">
-        <v>1773.726145770727</v>
+        <v>1891.978333272257</v>
       </c>
       <c r="AC2" t="n">
-        <v>1604.444211858649</v>
+        <v>1711.410576553021</v>
       </c>
       <c r="AD2" t="n">
-        <v>1296352.108428623</v>
+        <v>1382778.343368795</v>
       </c>
       <c r="AE2" t="n">
-        <v>1773726.145770727</v>
+        <v>1891978.333272257</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163425764840645e-06</v>
+        <v>2.39582343228598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.62076822916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1604444.211858649</v>
+        <v>1711410.576553021</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>831.8755699803347</v>
+        <v>896.7592518263923</v>
       </c>
       <c r="AB3" t="n">
-        <v>1138.208854607103</v>
+        <v>1226.985570574899</v>
       </c>
       <c r="AC3" t="n">
-        <v>1029.579799009561</v>
+        <v>1109.883789804294</v>
       </c>
       <c r="AD3" t="n">
-        <v>831875.5699803347</v>
+        <v>896759.2518263923</v>
       </c>
       <c r="AE3" t="n">
-        <v>1138208.854607103</v>
+        <v>1226985.570574899</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.450833315443572e-06</v>
+        <v>2.987677046981133e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.7236328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1029579.799009561</v>
+        <v>1109883.789804294</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>800.5461167190125</v>
+        <v>865.4297985650699</v>
       </c>
       <c r="AB4" t="n">
-        <v>1095.342514497032</v>
+        <v>1184.119230464828</v>
       </c>
       <c r="AC4" t="n">
-        <v>990.8045622363088</v>
+        <v>1071.108553031042</v>
       </c>
       <c r="AD4" t="n">
-        <v>800546.1167190125</v>
+        <v>865429.7985650699</v>
       </c>
       <c r="AE4" t="n">
-        <v>1095342.514497032</v>
+        <v>1184119.230464828</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.476438715406378e-06</v>
+        <v>3.040405823563065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.52180989583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>990804.5622363088</v>
+        <v>1071108.553031042</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1803.280004109591</v>
+        <v>1893.285211393759</v>
       </c>
       <c r="AB2" t="n">
-        <v>2467.327256721806</v>
+        <v>2590.476352077508</v>
       </c>
       <c r="AC2" t="n">
-        <v>2231.84900625583</v>
+        <v>2343.244924791625</v>
       </c>
       <c r="AD2" t="n">
-        <v>1803280.004109591</v>
+        <v>1893285.211393759</v>
       </c>
       <c r="AE2" t="n">
-        <v>2467327.256721806</v>
+        <v>2590476.352077508</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.930434239310477e-07</v>
+        <v>1.967401853802611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.49251302083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2231849.00625583</v>
+        <v>2343244.924791625</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1089.522194530984</v>
+        <v>1157.004787157605</v>
       </c>
       <c r="AB3" t="n">
-        <v>1490.732332884165</v>
+        <v>1583.064993237779</v>
       </c>
       <c r="AC3" t="n">
-        <v>1348.458931289669</v>
+        <v>1431.979492128837</v>
       </c>
       <c r="AD3" t="n">
-        <v>1089522.194530984</v>
+        <v>1157004.787157605</v>
       </c>
       <c r="AE3" t="n">
-        <v>1490732.332884165</v>
+        <v>1583064.993237779</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.315236659661843e-06</v>
+        <v>2.60572597335636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.45279947916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1348458.931289669</v>
+        <v>1431979.492128837</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>893.5134989343253</v>
+        <v>960.9107507063744</v>
       </c>
       <c r="AB4" t="n">
-        <v>1222.544588275461</v>
+        <v>1314.760481506878</v>
       </c>
       <c r="AC4" t="n">
-        <v>1105.866648622557</v>
+        <v>1189.281586429786</v>
       </c>
       <c r="AD4" t="n">
-        <v>893513.4989343253</v>
+        <v>960910.7507063744</v>
       </c>
       <c r="AE4" t="n">
-        <v>1222544.588275461</v>
+        <v>1314760.481506878</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.434675563725694e-06</v>
+        <v>2.842356432416417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.41438802083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1105866.648622557</v>
+        <v>1189281.586429786</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>867.3364868951155</v>
+        <v>934.7337386671646</v>
       </c>
       <c r="AB5" t="n">
-        <v>1186.728045555149</v>
+        <v>1278.943938786565</v>
       </c>
       <c r="AC5" t="n">
-        <v>1073.468386470637</v>
+        <v>1156.883324277867</v>
       </c>
       <c r="AD5" t="n">
-        <v>867336.4868951155</v>
+        <v>934733.7386671646</v>
       </c>
       <c r="AE5" t="n">
-        <v>1186728.045555149</v>
+        <v>1278943.938786566</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.451982633227786e-06</v>
+        <v>2.876644923535482e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.279296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1073468.386470637</v>
+        <v>1156883.324277867</v>
       </c>
     </row>
   </sheetData>
